--- a/nr-add-mapping-mos/ig/StructureDefinition-as-dr-device.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-dr-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T10:57:32+00:00</t>
+    <t>2025-01-02T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
